--- a/刷题日记.xlsx
+++ b/刷题日记.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nyu0-my.sharepoint.com/personal/lh3222_nyu_edu/Documents/23ng/LeetLintCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nyu0-my.sharepoint.com/personal/lh3222_nyu_edu/Documents/找工/LeetLintCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{5A9CCA11-6F90-6149-8FAD-2FDB8DE72C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DCEDDAB-AE0A-184A-BC98-9D5493E1B0CB}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{5A9CCA11-6F90-6149-8FAD-2FDB8DE72C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4ED517F-C9F0-F14C-AB30-EA515BCD0FA3}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="680" windowWidth="21240" windowHeight="16240" activeTab="4" xr2:uid="{B4896E48-0383-4344-9411-F37DD861E06A}"/>
+    <workbookView xWindow="12280" yWindow="720" windowWidth="21240" windowHeight="16240" activeTab="4" xr2:uid="{B4896E48-0383-4344-9411-F37DD861E06A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -764,9 +764,6 @@
     <t>4 23</t>
   </si>
   <si>
-    <t>4 25</t>
-  </si>
-  <si>
     <t>4 26</t>
   </si>
   <si>
@@ -1233,6 +1230,9 @@
   </si>
   <si>
     <t>07/03/2023</t>
+  </si>
+  <si>
+    <t>6 9</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1337,6 +1337,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,10 +1728,10 @@
         <v>171</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1738,7 +1739,7 @@
         <v>172</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1887,10 +1888,10 @@
         <v>4.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1912,7 +1913,7 @@
         <v>231</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1942,7 +1943,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1953,7 +1954,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1964,7 +1965,7 @@
         <v>4.7</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1983,7 +1984,7 @@
         <v>4.7</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2072,7 +2073,7 @@
         <v>105</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2147,7 +2148,7 @@
         <v>114</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2244,7 +2245,7 @@
         <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2362,7 +2363,7 @@
         <v>140</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2370,7 +2371,7 @@
         <v>141</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2389,7 +2390,7 @@
         <v>228</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2426,7 +2427,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>233</v>
@@ -2509,10 +2510,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2549,10 +2550,10 @@
         <v>4.26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2626,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2639,7 +2640,7 @@
         <v>230</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2652,10 +2653,10 @@
         <v>230</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2678,10 +2679,10 @@
         <v>237</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" t="s">
         <v>242</v>
-      </c>
-      <c r="H14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2715,7 +2716,7 @@
         <v>231</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2745,7 +2746,7 @@
         <v>231</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2761,7 +2762,7 @@
         <v>231</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2780,7 +2781,7 @@
         <v>235</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2822,7 +2823,7 @@
         <v>231</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2835,7 +2836,7 @@
         <v>231</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2909,7 +2910,7 @@
         <v>237</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2951,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEA5F8E-68F1-6B4D-AEB6-C3178EBCF8FF}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3032,10 +3033,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3065,7 +3066,7 @@
         <v>238</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -3073,11 +3074,13 @@
       <c r="A18" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -3129,7 +3132,7 @@
         <v>219</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>240</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3137,7 +3140,7 @@
         <v>220</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3145,7 +3148,7 @@
         <v>221</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3153,7 +3156,7 @@
         <v>222</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -3387,254 +3390,254 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" s="1"/>
       <c r="E2" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3654,438 +3657,438 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/刷题日记.xlsx
+++ b/刷题日记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nyu0-my.sharepoint.com/personal/lh3222_nyu_edu/Documents/找工/LeetLintCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{5A9CCA11-6F90-6149-8FAD-2FDB8DE72C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4ED517F-C9F0-F14C-AB30-EA515BCD0FA3}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{5A9CCA11-6F90-6149-8FAD-2FDB8DE72C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69B6109C-FBE1-4149-B874-2CCDD7F85AD6}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="720" windowWidth="21240" windowHeight="16240" activeTab="4" xr2:uid="{B4896E48-0383-4344-9411-F37DD861E06A}"/>
+    <workbookView xWindow="12960" yWindow="780" windowWidth="21240" windowHeight="16240" activeTab="5" xr2:uid="{B4896E48-0383-4344-9411-F37DD861E06A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="397">
   <si>
     <t>二叉树前中后序遍历（需要熟练掌握非递归方式）：</t>
   </si>
@@ -1239,7 +1239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1271,6 +1271,13 @@
     <font>
       <sz val="12"/>
       <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1326,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1338,6 +1345,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2952,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEA5F8E-68F1-6B4D-AEB6-C3178EBCF8FF}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3139,16 +3147,16 @@
       <c r="A30" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>240</v>
+      <c r="D30" s="8">
+        <v>6.1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>240</v>
+      <c r="D31" s="6">
+        <v>6.11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3194,88 +3202,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0D9021-C0CB-E742-9DEE-7743D2AC35CF}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
